--- a/static/files/Results-upload-Sheet.xlsx
+++ b/static/files/Results-upload-Sheet.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -31,7 +31,7 @@
     <t>semester</t>
   </si>
   <si>
-    <t>student</t>
+    <t>name</t>
   </si>
   <si>
     <t>test_score</t>
@@ -43,28 +43,1055 @@
     <t>grade</t>
   </si>
   <si>
+    <t>department</t>
+  </si>
+  <si>
     <t>Session</t>
   </si>
   <si>
-    <t>department</t>
+    <t>Geodesy</t>
+  </si>
+  <si>
+    <t>GLS391</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <r>
+      <t>EZEORIZU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CHIADIKOBI</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Applied Geophysics</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
+    <r>
+      <t>EZEOKOYE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>URSULA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ECHEFU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>KENNEDY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OCHEJA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JOSEPH</t>
+    </r>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <r>
+      <t>EBGU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BONAVENTURE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UKACHUKWU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MARVELOUS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHUKWU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GOODNESS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KENNEDY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CHIDERA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OSUJI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JUDITH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ATAMBA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CHINAZA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EZENEKWE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NDIDIAMAKA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHINONSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ATHANASIUS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHIANAKWANA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CHIDIMMA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UBAEZEONU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OGECHUKWU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UCHECHUKWU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ONYINYE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ANYASODOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CHISOMAGA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AWA-ABUON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AGAPE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AJAH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EZINNE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NNAWUIHE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EMMANUELLA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OZIGBO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>KOSISOCHUKWU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OKWARA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CHIBUEZE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AZIKE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MARY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NWAFOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ANTHONY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NWAFOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GLORY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OBINYELAKU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CHIBUZOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHUKWUEZI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VERA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NWANKWO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ONYINYECHI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ANIKE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FRANCIS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OKORO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CHIDIEBERE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FARINTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DANIEL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EDOH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PHILIP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHINWUBA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CHRISTIAN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AMANWATA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UCHECHI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OKAFOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AMARACHI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KEN-DICKSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GIFT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EKEZIE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NMESOMA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OKOYE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GRACE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OFILI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BENJAMIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OKAFOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VICTOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IBE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ARTHUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OKEZE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FAVOUR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NWOSU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GINIKA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AZUIKE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TOCHI</t>
+    </r>
+  </si>
+  <si>
+    <t>reg_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,17 +1112,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -389,19 +1422,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="1" sqref="A2:XFD2 A2:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,23 +1452,1531 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>2018564001</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>2018564002</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>2018564003</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>2018564004</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>2018564005</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="12" customHeight="1">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>2018564007</v>
+      </c>
+      <c r="H7">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>2018564008</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>2018564009</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>2018564010</v>
+      </c>
+      <c r="H10">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>2018564011</v>
+      </c>
+      <c r="H11">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>2018564012</v>
+      </c>
+      <c r="H12">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>2018564013</v>
+      </c>
+      <c r="H13">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>2018564014</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>2018564015</v>
+      </c>
+      <c r="H15">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>2018564016</v>
+      </c>
+      <c r="H16">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>2018564017</v>
+      </c>
+      <c r="H17">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <v>2018564018</v>
+      </c>
+      <c r="H18">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>45</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>2018564019</v>
+      </c>
+      <c r="H19">
+        <v>26</v>
+      </c>
+      <c r="I19">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>2018564020</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21">
+        <v>2018564021</v>
+      </c>
+      <c r="H21">
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <v>2018564023</v>
+      </c>
+      <c r="H22">
+        <v>27</v>
+      </c>
+      <c r="I22">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23">
+        <v>2018564024</v>
+      </c>
+      <c r="H23">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>2018564025</v>
+      </c>
+      <c r="H24">
+        <v>29</v>
+      </c>
+      <c r="I24">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25">
+        <v>2018564026</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26">
+        <v>2018564028</v>
+      </c>
+      <c r="H26">
+        <v>29</v>
+      </c>
+      <c r="I26">
+        <v>40</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27">
+        <v>2018564029</v>
+      </c>
+      <c r="H27">
+        <v>28</v>
+      </c>
+      <c r="I27">
+        <v>35</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28">
+        <v>2018564030</v>
+      </c>
+      <c r="H28">
+        <v>26</v>
+      </c>
+      <c r="I28">
+        <v>36</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29">
+        <v>2018564031</v>
+      </c>
+      <c r="H29">
+        <v>26</v>
+      </c>
+      <c r="I29">
+        <v>45</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30">
+        <v>2018564032</v>
+      </c>
+      <c r="H30">
+        <v>25</v>
+      </c>
+      <c r="I30">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31">
+        <v>2018564033</v>
+      </c>
+      <c r="H31">
+        <v>17</v>
+      </c>
+      <c r="I31">
+        <v>48</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32">
+        <v>2018564034</v>
+      </c>
+      <c r="H32">
+        <v>22</v>
+      </c>
+      <c r="I32">
+        <v>40</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33">
+        <v>2018564035</v>
+      </c>
+      <c r="H33">
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <v>44</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>2018564036</v>
+      </c>
+      <c r="H34">
+        <v>28</v>
+      </c>
+      <c r="I34">
+        <v>46</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35">
+        <v>2018564037</v>
+      </c>
+      <c r="H35">
+        <v>29</v>
+      </c>
+      <c r="I35">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36">
+        <v>2018564040</v>
+      </c>
+      <c r="H36">
+        <v>26</v>
+      </c>
+      <c r="I36">
+        <v>47</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37">
+        <v>2018564042</v>
+      </c>
+      <c r="H37">
+        <v>27</v>
+      </c>
+      <c r="I37">
+        <v>35</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38">
+        <v>2018564043</v>
+      </c>
+      <c r="H38">
+        <v>26</v>
+      </c>
+      <c r="I38">
+        <v>46</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39">
+        <v>2018564044</v>
+      </c>
+      <c r="H39">
+        <v>28</v>
+      </c>
+      <c r="I39">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40">
+        <v>2018564045</v>
+      </c>
+      <c r="H40">
+        <v>29</v>
+      </c>
+      <c r="I40">
+        <v>49</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41">
+        <v>2018564046</v>
+      </c>
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>35</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42">
+        <v>2018724011</v>
+      </c>
+      <c r="H42">
+        <v>27</v>
+      </c>
+      <c r="I42">
+        <v>35</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43">
+        <v>2013364219</v>
+      </c>
+      <c r="H43">
+        <v>29</v>
+      </c>
+      <c r="I43">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44">
+        <v>2018504051</v>
+      </c>
+      <c r="H44">
+        <v>27</v>
+      </c>
+      <c r="I44">
+        <v>47</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
